--- a/results/mp/logistic/corona/confidence/210/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,9 +55,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
@@ -76,79 +73,82 @@
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
@@ -520,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -581,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7294520547945206</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D3">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -631,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.455026455026455</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D4">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -649,19 +649,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -681,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3624031007751938</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -699,19 +699,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -731,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -781,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1472222222222222</v>
+        <v>0.125</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -799,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.839622641509434</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L7">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="M7">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -831,87 +831,63 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01268498942917548</v>
+        <v>0.005056398288603656</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8">
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="F8">
-        <v>0.6799999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8">
-        <v>2335</v>
+        <v>5116</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.828125</v>
+      </c>
+      <c r="L8">
+        <v>106</v>
+      </c>
+      <c r="M8">
+        <v>106</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L8">
-        <v>30</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.005262132137984798</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>61</v>
-      </c>
-      <c r="E9">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.4399999999999999</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>5104</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8198433420365535</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,12 +899,12 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
         <v>0.8103448275862069</v>
@@ -954,16 +930,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.8055555555555556</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,21 +951,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
-        <v>0.7926829268292683</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L12">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1001,21 +977,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7875</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,21 +1003,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1053,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7605633802816901</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,21 +1055,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.7625</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,21 +1081,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7446808510638298</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,21 +1107,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,21 +1133,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7142857142857143</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1183,12 +1159,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.6976744186046512</v>
@@ -1214,16 +1190,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,21 +1211,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6507936507936508</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,21 +1237,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6294117647058823</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L23">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M23">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,21 +1263,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5857142857142857</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,21 +1289,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5851063829787234</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L25">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="M25">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,21 +1315,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5732217573221757</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L26">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,21 +1341,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>102</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5661016949152542</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L27">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>167</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,47 +1367,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>128</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5230769230769231</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L28">
+        <v>36</v>
+      </c>
+      <c r="M28">
+        <v>36</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>34</v>
-      </c>
-      <c r="M28">
-        <v>34</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.5168539325842697</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1443,15 +1419,15 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.3424657534246575</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L30">
         <v>25</v>
@@ -1469,21 +1445,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.02838063439065109</v>
+        <v>0.02420701168614357</v>
       </c>
       <c r="L31">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>0.9399999999999999</v>
@@ -1495,85 +1471,85 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>1164</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.007197585326213141</v>
+        <v>0.01241068070703272</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N32">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="O32">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>4276</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.006830052229811169</v>
+        <v>0.008580705009276438</v>
       </c>
       <c r="L33">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M33">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="O33">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>4944</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.006617360840794083</v>
+        <v>0.007426736250501807</v>
       </c>
       <c r="L34">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="N34">
-        <v>0.5600000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O34">
-        <v>0.4399999999999999</v>
+        <v>0.27</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>5104</v>
+        <v>4945</v>
       </c>
     </row>
   </sheetData>
